--- a/tmp/f24-ch1-coi-db0-Unshield.xlsx
+++ b/tmp/f24-ch1-coi-db0-Unshield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,15 +6414,11 @@
           <t>http://speed.blix.com:8080/speedtest/upload.php</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>59.9494</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>10.7564</t>
-        </is>
+      <c r="E58" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.7564</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -6444,10 +6440,8 @@
           <t>Blix Solutions AS</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>32410</t>
-        </is>
+      <c r="K58" t="n">
+        <v>32410</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -6477,47 +6471,5461 @@
           <t>178.232.234.106</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="T58" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21721603.51445259</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37111355.00719882</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.134</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.134</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:05:24.076384Z</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>46555136</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>27729392</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>20264401.07413124</v>
+      </c>
+      <c r="B60" t="n">
+        <v>27082669.8925851</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:05:49.132952Z</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>33972224</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25763312</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>19544843.32904341</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28937100.84401099</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.541</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N61" t="n">
+        <v>8.541</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:06:14.187686Z</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>36265984</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>24554992</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20505134.3366078</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25667527.1645162</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:06:39.085213Z</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>32522240</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>25845232</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21724249.92370385</v>
+      </c>
+      <c r="B63" t="n">
+        <v>28060574.1245772</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:07:04.138015Z</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>35520512</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>27821552</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>25813901.52207202</v>
+      </c>
+      <c r="B64" t="n">
+        <v>31344225.69990517</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7.069</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N64" t="n">
+        <v>7.069</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:07:29.307784Z</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>39567360</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>32583152</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U64" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24722902.81353367</v>
+      </c>
+      <c r="B65" t="n">
+        <v>29235839.26013801</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.855</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.855</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:07:54.322880Z</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>36855808</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>31323632</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U65" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>26491592.61684863</v>
+      </c>
+      <c r="B66" t="n">
+        <v>36352745.74427225</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:08:19.393482Z</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>45678592</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>33299952</v>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U66" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25957505.26659979</v>
+      </c>
+      <c r="B67" t="n">
+        <v>27095138.93703605</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.869</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.869</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:08:44.303658Z</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>34471936</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>33576432</v>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25204335.31993721</v>
+      </c>
+      <c r="B68" t="n">
+        <v>29181832.7419503</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.507</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.507</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:09:09.657846Z</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>37134336</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>31610352</v>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U68" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>30349330.57423533</v>
+      </c>
+      <c r="B69" t="n">
+        <v>28386419.30526153</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.255</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5.255</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:09:34.681245Z</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>35659776</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>38348272</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U69" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W69" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>24544897.92629808</v>
+      </c>
+      <c r="B70" t="n">
+        <v>27179748.29602085</v>
+      </c>
+      <c r="C70" t="n">
+        <v>86.252</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N70" t="n">
+        <v>86.252</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:09:59.820554Z</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>34234368</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>31466992</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27646626.90037663</v>
+      </c>
+      <c r="B71" t="n">
+        <v>30000348.69717526</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N71" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:10:25.768982Z</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>38174720</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>34774512</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U71" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>24301582.75542434</v>
+      </c>
+      <c r="B72" t="n">
+        <v>27763784.99615449</v>
+      </c>
+      <c r="C72" t="n">
+        <v>38.318</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N72" t="n">
+        <v>38.318</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:10:51.324695Z</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>34922496</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>31292912</v>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W72" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23364445.43079704</v>
+      </c>
+      <c r="B73" t="n">
+        <v>28970554.97542146</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.539</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.539</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:11:16.896286Z</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>36323328</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>29869552</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>24310252.28549043</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28753855.85213705</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.375999999999999</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.375999999999999</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:11:42.015918Z</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>36126720</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>30985712</v>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U74" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>24674036.0578852</v>
+      </c>
+      <c r="B75" t="n">
+        <v>26926857.69909002</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N75" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:12:07.199880Z</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>33751040</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>31098352</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U75" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27767581.3608363</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28701066.34045389</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.367</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5.367</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:12:32.534246Z</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>36069376</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>34917872</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U76" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>23481834.11014916</v>
+      </c>
+      <c r="B77" t="n">
+        <v>27878189.91277172</v>
+      </c>
+      <c r="C77" t="n">
+        <v>45.261</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N77" t="n">
+        <v>45.261</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:12:57.790697Z</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>35135488</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>29562352</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>25926405.05570186</v>
+      </c>
+      <c r="B78" t="n">
+        <v>36540035.0316322</v>
+      </c>
+      <c r="C78" t="n">
+        <v>13.537</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N78" t="n">
+        <v>13.537</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:13:23.359877Z</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>46505984</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>32869872</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>24198975.06338196</v>
+      </c>
+      <c r="B79" t="n">
+        <v>27031223.44294308</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:13:48.723459Z</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>34381824</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>30924272</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>23179815.94440403</v>
+      </c>
+      <c r="B80" t="n">
+        <v>27709211.52573509</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.801</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.801</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:14:14.061221Z</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>34701312</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>29234672</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U80" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>24638145.75049418</v>
+      </c>
+      <c r="B81" t="n">
+        <v>25459021.11681003</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13.843</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N81" t="n">
+        <v>13.843</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:14:39.084378Z</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>31948800</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>31067632</v>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U81" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>24548331.77480514</v>
+      </c>
+      <c r="B82" t="n">
+        <v>28012624.65615477</v>
+      </c>
+      <c r="C82" t="n">
+        <v>65.976</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N82" t="n">
+        <v>65.976</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:15:04.240019Z</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>35299328</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>31221232</v>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U82" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27011564.40114069</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29381814.04143093</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.822</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:15:30.011932Z</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>36904960</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>33955312</v>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U83" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>24342149.3179053</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28375892.42194951</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N84" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:15:55.337598Z</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>35545088</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>31538672</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U84" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>24436815.36660389</v>
+      </c>
+      <c r="B85" t="n">
+        <v>36495179.78273255</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.859</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4.859</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:16:20.792202Z</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>45899776</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>30965232</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U85" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>26941021.28488904</v>
+      </c>
+      <c r="B86" t="n">
+        <v>28146457.55821215</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7.111</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.111</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:16:46.009578Z</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>36274176</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>33914352</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U86" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>24928850.54121848</v>
+      </c>
+      <c r="B87" t="n">
+        <v>27795441.86287825</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5.346</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5.346</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:17:11.366381Z</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>35127296</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>31978992</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37171546.20250629</v>
+      </c>
+      <c r="B88" t="n">
+        <v>28224946.99019257</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.591</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.591</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:17:36.741034Z</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>35520512</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>47998516</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U88" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>24906796.02597722</v>
+      </c>
+      <c r="B89" t="n">
+        <v>27820006.34411132</v>
+      </c>
+      <c r="C89" t="n">
+        <v>81.276</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N89" t="n">
+        <v>81.276</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:18:02.219180Z</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>35143680</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>31538672</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U89" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>26942273.75047029</v>
+      </c>
+      <c r="B90" t="n">
+        <v>30453034.16247205</v>
+      </c>
+      <c r="C90" t="n">
+        <v>58.947</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N90" t="n">
+        <v>58.947</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:18:28.128697Z</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>38125568</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>33883632</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>26136045.35439898</v>
+      </c>
+      <c r="B91" t="n">
+        <v>28541718.12156714</v>
+      </c>
+      <c r="C91" t="n">
+        <v>71.76300000000001</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N91" t="n">
+        <v>71.76300000000001</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:18:53.722695Z</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>36003840</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>32869872</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U91" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25620905.07411614</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32974366.82404818</v>
+      </c>
+      <c r="C92" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N92" t="n">
+        <v>79.59</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:19:19.478657Z</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>41631744</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>32194032</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U92" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>26634039.87341509</v>
+      </c>
+      <c r="B93" t="n">
+        <v>29936380.86003211</v>
+      </c>
+      <c r="C93" t="n">
+        <v>78.126</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N93" t="n">
+        <v>78.126</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:19:45.400603Z</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>37658624</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>33699312</v>
+      </c>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>24210388.90240733</v>
+      </c>
+      <c r="B94" t="n">
+        <v>28225760.3745764</v>
+      </c>
+      <c r="C94" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N94" t="n">
+        <v>69.05</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:20:11.291194Z</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>35921920</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>30719472</v>
+      </c>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U94" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>29849370.21138841</v>
+      </c>
+      <c r="B95" t="n">
+        <v>27264084.83083443</v>
+      </c>
+      <c r="C95" t="n">
+        <v>14.303</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N95" t="n">
+        <v>14.303</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:20:37.255644Z</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>34398208</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>37436912</v>
+      </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U95" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>25015976.67269249</v>
+      </c>
+      <c r="B96" t="n">
+        <v>27858342.41248685</v>
+      </c>
+      <c r="C96" t="n">
+        <v>48.155</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N96" t="n">
+        <v>48.155</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:21:02.705486Z</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>34996224</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>31907312</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U96" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27702107.90355037</v>
+      </c>
+      <c r="B97" t="n">
+        <v>28963175.86610654</v>
+      </c>
+      <c r="C97" t="n">
+        <v>91.575</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N97" t="n">
+        <v>91.575</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:21:28.568850Z</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>36495360</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>35143152</v>
+      </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U97" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W97" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>25465101.18470471</v>
+      </c>
+      <c r="B98" t="n">
+        <v>27049894.2688752</v>
+      </c>
+      <c r="C98" t="n">
+        <v>54.591</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N98" t="n">
+        <v>54.591</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:21:54.675324Z</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>34430976</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>32009712</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U98" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>26679220.2130867</v>
+      </c>
+      <c r="B99" t="n">
+        <v>34560988.77188274</v>
+      </c>
+      <c r="C99" t="n">
+        <v>39.906</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N99" t="n">
+        <v>39.906</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:22:20.481728Z</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>43507712</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>33453552</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U99" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>26526053.8453388</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25464833.05031538</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.502</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.502</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:22:46.103463Z</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>32702464</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>33443312</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>24395201.57087009</v>
+      </c>
+      <c r="B101" t="n">
+        <v>28392255.70774742</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.998</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N101" t="n">
+        <v>7.998</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:23:11.686734Z</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>35741696</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>31272432</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U101" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>25846263.47280499</v>
+      </c>
+      <c r="B102" t="n">
+        <v>27417408.53891717</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N102" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:23:37.142857Z</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>34693120</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>32644592</v>
+      </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U102" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W102" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>25887689.0569458</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25984044.28109932</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.345000000000001</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N103" t="n">
+        <v>8.345000000000001</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:24:02.667052Z</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>32595968</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>32552432</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>24615487.57808599</v>
+      </c>
+      <c r="B104" t="n">
+        <v>29989811.41302407</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.388</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N104" t="n">
+        <v>8.388</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:24:28.107364Z</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>37650432</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>31077872</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U104" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>24931972.35314096</v>
+      </c>
+      <c r="B105" t="n">
+        <v>28239008.88573307</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8.148999999999999</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N105" t="n">
+        <v>8.148999999999999</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:24:53.543879Z</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>35725312</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>31610352</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U105" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W105" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>25116612.50521411</v>
+      </c>
+      <c r="B106" t="n">
+        <v>30799571.1902549</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N106" t="n">
+        <v>11.384</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:25:18.984535Z</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>38658048</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>32019952</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U106" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>26835655.0807762</v>
+      </c>
+      <c r="B107" t="n">
+        <v>28576711.93491855</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N107" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:25:44.368611Z</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>35815424</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>33699312</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>25735915.01102572</v>
+      </c>
+      <c r="B108" t="n">
+        <v>27187645.02224229</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.671</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4.671</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:26:09.728746Z</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>34054144</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>32603632</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>30714639.50588331</v>
+      </c>
+      <c r="B109" t="n">
+        <v>31048973.32365123</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.457</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>59.9494</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10.7564</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>12919</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N109" t="n">
+        <v>6.457</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:26:35.172589Z</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>38871040</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>39587312</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>59.9452</v>
+      </c>
+      <c r="U109" t="n">
+        <v>10.7559</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Telia Norge AS</t>
+        </is>
+      </c>
+      <c r="W109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>40873858.31872157</v>
+      </c>
+      <c r="B110" t="n">
+        <v>52716793.00765156</v>
+      </c>
+      <c r="C110" t="n">
+        <v>49.271</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>http://test.telenor.net:8080/speedtest/upload.php</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>59.9494</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>10.7564</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Telenor Norge AS</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>12919</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>test.telenor.net:8080</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0.4678479364117756</v>
+      </c>
+      <c r="N110" t="n">
+        <v>49.271</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>2024-02-26T00:27:00.684284Z</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>66437120</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>51265076</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>178.232.234.106</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
         <is>
           <t>59.9452</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="U110" t="inlineStr">
         <is>
           <t>10.7559</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
+      <c r="V110" t="inlineStr">
         <is>
           <t>Telia Norge AS</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="W110" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="X110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Y110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="Z110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AA110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AB110" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
